--- a/用例数据/深A/股票买入/测试结果.xlsx
+++ b/用例数据/深A/股票买入/测试结果.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="todaytraderslt" sheetId="1" r:id="rId1"/>
-    <sheet name="tradinglog2021" sheetId="2" r:id="rId2"/>
+    <sheet name="tradinglog" sheetId="2" r:id="rId2"/>
     <sheet name="account" sheetId="3" r:id="rId3"/>
     <sheet name="stklist" sheetId="4" r:id="rId4"/>
     <sheet name="account2021" sheetId="5" r:id="rId5"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="436">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -564,9 +564,6 @@
     <t>00</t>
   </si>
   <si>
-    <t>20210130160722</t>
-  </si>
-  <si>
     <t>A0</t>
   </si>
   <si>
@@ -1023,9 +1020,6 @@
     <t>0.0500000000</t>
   </si>
   <si>
-    <t>651601161.670</t>
-  </si>
-  <si>
     <t>20181008113252</t>
   </si>
   <si>
@@ -1269,9 +1263,6 @@
     <t>-2573.630</t>
   </si>
   <si>
-    <t>30000042</t>
-  </si>
-  <si>
     <t>25.10000000</t>
   </si>
   <si>
@@ -1291,9 +1282,6 @@
   </si>
   <si>
     <t>1.130</t>
-  </si>
-  <si>
-    <t>20210130100614</t>
   </si>
   <si>
     <t>4</t>
@@ -1304,6 +1292,42 @@
   <si>
     <t>0.00</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJUSTEDFEEFLAG</t>
+  </si>
+  <si>
+    <t>BUSINESSCODE</t>
+  </si>
+  <si>
+    <t>OTHERFEE4</t>
+  </si>
+  <si>
+    <t>30051545</t>
+  </si>
+  <si>
+    <t>20221011231134</t>
+  </si>
+  <si>
+    <t>20221011000000</t>
+  </si>
+  <si>
+    <t>953674.660</t>
+  </si>
+  <si>
+    <t>20221011100614</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20221012000000</t>
+  </si>
+  <si>
+    <t>1.0000000000</t>
+  </si>
+  <si>
+    <t>20211212000000</t>
   </si>
 </sst>
 </file>
@@ -1659,9 +1683,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1819,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1902,10 +1926,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1914,16 +1938,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EF3"/>
+  <dimension ref="A1:EI3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:136" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2332,10 +2358,19 @@
       <c r="EF1" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="EG1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>426</v>
+      </c>
     </row>
-    <row r="2" spans="1:136" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>179</v>
@@ -2344,10 +2379,10 @@
         <v>180</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>46</v>
@@ -2356,10 +2391,10 @@
         <v>48</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>49</v>
@@ -2371,19 +2406,19 @@
         <v>49</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>52</v>
@@ -2395,82 +2430,82 @@
         <v>53</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>329</v>
+        <v>430</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>53</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="AN2" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AO2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="AP2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>55</v>
@@ -2482,7 +2517,7 @@
         <v>66</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>56</v>
@@ -2494,13 +2529,13 @@
         <v>46</v>
       </c>
       <c r="BF2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI2" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="BJ2" s="1" t="s">
         <v>51</v>
@@ -2512,13 +2547,13 @@
         <v>56</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="BR2" s="1" t="s">
         <v>66</v>
@@ -2527,10 +2562,10 @@
         <v>66</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>46</v>
@@ -2542,7 +2577,7 @@
         <v>46</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>56</v>
+        <v>432</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>66</v>
@@ -2560,52 +2595,52 @@
         <v>56</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>69</v>
+        <v>433</v>
       </c>
       <c r="CL2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CR2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CN2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CR2" s="1" t="s">
+      <c r="CT2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="DA2" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CV2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="DE2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="DC2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="DF2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="DI2" s="1" t="s">
         <v>180</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>64</v>
+        <v>434</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>66</v>
@@ -2617,31 +2652,31 @@
         <v>51</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="DO2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="DP2" s="1" t="s">
+      <c r="DR2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="DU2" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="DQ2" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="DV2" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="DW2" s="1" t="s">
         <v>66</v>
@@ -2653,7 +2688,7 @@
         <v>65</v>
       </c>
       <c r="EA2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="EC2" s="1" t="s">
         <v>68</v>
@@ -2664,8 +2699,14 @@
       <c r="EE2" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="EG2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="3" spans="1:136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2674,15 +2715,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EP2"/>
+  <dimension ref="A1:ER2"/>
   <sheetViews>
-    <sheetView topLeftCell="BE1" workbookViewId="0">
-      <selection activeCell="BP14" sqref="BP14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -2690,94 +2731,94 @@
         <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>157</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>98</v>
@@ -2786,67 +2827,67 @@
         <v>99</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>173</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>120</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AW1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>106</v>
@@ -2855,43 +2896,43 @@
         <v>107</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>123</v>
       </c>
       <c r="BH1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="BL1" s="1" t="s">
         <v>146</v>
       </c>
       <c r="BM1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="BS1" s="1" t="s">
         <v>155</v>
@@ -2903,237 +2944,237 @@
         <v>156</v>
       </c>
       <c r="BV1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="EP1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="2" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>46</v>
@@ -3142,19 +3183,19 @@
         <v>180</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>66</v>
@@ -3184,34 +3225,34 @@
         <v>60</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="Z2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="AA2" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>46</v>
@@ -3220,16 +3261,16 @@
         <v>60</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>334</v>
+        <v>411</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>56</v>
@@ -3241,34 +3282,34 @@
         <v>66</v>
       </c>
       <c r="AR2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="AX2" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AY2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BE2" s="1" t="s">
         <v>56</v>
@@ -3301,28 +3342,28 @@
         <v>66</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>427</v>
+        <v>189</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BU2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BX2" s="1" t="s">
         <v>49</v>
@@ -3340,125 +3381,125 @@
         <v>66</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CF2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CI2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CL2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CM2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="CV2" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="CN2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="CO2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CP2" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="CQ2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="CR2" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="CS2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="CU2" s="1" t="s">
+      <c r="CW2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="CX2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DB2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DH2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DI2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="DP2" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="CV2" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="CW2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CX2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="CY2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="CZ2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="DB2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="DG2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="DH2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="DI2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="DJ2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="DK2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="DL2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="DM2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="DR2" s="1" t="s">
         <v>66</v>
       </c>
@@ -3496,7 +3537,7 @@
         <v>66</v>
       </c>
       <c r="ED2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="EE2" s="1" t="s">
         <v>56</v>
@@ -3526,6 +3567,12 @@
         <v>66</v>
       </c>
       <c r="EP2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="EQ2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="ER2" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3539,19 +3586,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3565,7 +3612,7 @@
         <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -3577,43 +3624,43 @@
         <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>72</v>
@@ -3628,195 +3675,195 @@
         <v>8</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="BU1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="BY1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="CD1" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>407</v>
-      </c>
     </row>
-    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>47</v>
@@ -3825,7 +3872,7 @@
         <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>56</v>
@@ -3834,10 +3881,10 @@
         <v>53</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>66</v>
@@ -3870,10 +3917,10 @@
         <v>180</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>52</v>
@@ -3882,7 +3929,7 @@
         <v>60</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>56</v>
@@ -3924,7 +3971,7 @@
         <v>56</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>49</v>
@@ -4002,17 +4049,17 @@
         <v>56</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="BP2" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR2" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="BQ2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="BS2" s="1" t="s">
         <v>56</v>
       </c>
@@ -4053,8 +4100,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4069,12 +4116,12 @@
       <selection activeCell="BX6" sqref="BX6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="56" max="56" width="15.33203125" customWidth="1"/>
+    <col min="56" max="56" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -4085,94 +4132,94 @@
         <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>157</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>98</v>
@@ -4181,67 +4228,67 @@
         <v>99</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>173</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>120</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AX1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>106</v>
@@ -4250,82 +4297,82 @@
         <v>107</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>123</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="BL1" s="1" t="s">
         <v>146</v>
       </c>
       <c r="BM1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BO1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CF1" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="CG1" s="1" t="s">
         <v>155</v>
@@ -4337,138 +4384,138 @@
         <v>156</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CK1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="CL1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="CL1" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="CM1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="CN1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="CO1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="CQ1" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="CR1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="CS1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="CS1" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="CT1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="CU1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="CV1" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="CW1" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="CY1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="DE1" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="DF1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="DG1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="DV1" s="1" t="s">
-        <v>324</v>
-      </c>
     </row>
-    <row r="2" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>46</v>
@@ -4477,19 +4524,19 @@
         <v>180</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>66</v>
@@ -4519,34 +4566,34 @@
         <v>60</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>46</v>
@@ -4555,16 +4602,16 @@
         <v>60</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>56</v>
@@ -4576,34 +4623,34 @@
         <v>66</v>
       </c>
       <c r="AS2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AT2" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="AY2" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AZ2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BB2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>56</v>
@@ -4648,91 +4695,91 @@
         <v>66</v>
       </c>
       <c r="BU2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CF2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CI2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CL2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="CN2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="CO2" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CP2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="CR2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="CT2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CX2" s="1" t="s">
         <v>66</v>
@@ -4768,7 +4815,7 @@
         <v>66</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>56</v>
@@ -4815,13 +4862,13 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -4838,7 +4885,7 @@
         <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -4850,43 +4897,43 @@
         <v>80</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>72</v>
@@ -4901,157 +4948,157 @@
         <v>8</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="AM1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="BM1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BN1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="BP1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="BR1" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="BU1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>407</v>
-      </c>
     </row>
-    <row r="2" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -5059,16 +5106,16 @@
         <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>47</v>
@@ -5077,7 +5124,7 @@
         <v>49</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>56</v>
@@ -5086,10 +5133,10 @@
         <v>56</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>66</v>
@@ -5122,10 +5169,10 @@
         <v>180</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>52</v>
@@ -5134,7 +5181,7 @@
         <v>66</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>56</v>
@@ -5164,7 +5211,7 @@
         <v>56</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>49</v>
@@ -5236,16 +5283,16 @@
         <v>56</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="BN2" s="1" t="s">
         <v>56</v>
@@ -5281,8 +5328,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/深A/股票买入/测试结果.xlsx
+++ b/用例数据/深A/股票买入/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="todaytraderslt" sheetId="1" r:id="rId1"/>
@@ -1327,7 +1327,7 @@
     <t>1.0000000000</t>
   </si>
   <si>
-    <t>20211212000000</t>
+    <t>20220105000000</t>
   </si>
 </sst>
 </file>
@@ -1683,9 +1683,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,10 +1926,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1940,16 +1940,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2368,7 +2366,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>427</v>
       </c>
@@ -2706,7 +2704,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2717,13 +2715,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ER2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="27" max="27" width="16.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>324</v>
       </c>
@@ -3579,6 +3580,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3590,15 +3592,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3849,7 +3851,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -4100,8 +4102,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4116,12 +4118,12 @@
       <selection activeCell="BX6" sqref="BX6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="56" max="56" width="15.375" customWidth="1"/>
+    <col min="56" max="56" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -4501,7 +4503,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:126" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -4862,13 +4864,13 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -5098,7 +5100,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -5328,8 +5330,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
